--- a/TestProject/cases/Event_data/event.xlsx
+++ b/TestProject/cases/Event_data/event.xlsx
@@ -37,10 +37,6 @@
     <t>EventList</t>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dimensions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,6 +70,10 @@
   </si>
   <si>
     <t>pt:eventCount,pt:sessions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +432,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -446,19 +446,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.15">
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.15">
@@ -474,10 +474,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.15">
@@ -485,10 +485,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
